--- a/笔记/汇编语言笔记.xlsx
+++ b/笔记/汇编语言笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="3195" windowWidth="15315" windowHeight="3240" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="3195" windowWidth="15315" windowHeight="3240" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="结构图" sheetId="3" r:id="rId1"/>
@@ -4621,6 +4621,33 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4639,32 +4666,86 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4678,44 +4759,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4733,94 +4793,136 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4838,12 +4940,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4857,102 +4953,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7022,13 +7022,13 @@
       <c r="W5" s="37"/>
       <c r="X5" s="37"/>
       <c r="Y5" s="38"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="50"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="44"/>
     </row>
     <row r="6" spans="2:46">
       <c r="B6" s="39"/>
@@ -7049,13 +7049,13 @@
       <c r="W6" s="40"/>
       <c r="X6" s="40"/>
       <c r="Y6" s="41"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="53"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="47"/>
     </row>
     <row r="7" spans="2:46">
       <c r="I7" s="19"/>
@@ -7072,13 +7072,13 @@
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="21"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="56"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="50"/>
     </row>
     <row r="8" spans="2:46" ht="14.25" customHeight="1">
       <c r="I8" s="36" t="s">
@@ -7142,12 +7142,12 @@
       <c r="AI10" s="38"/>
     </row>
     <row r="11" spans="2:46" ht="14.25" customHeight="1">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
       <c r="I11" s="36" t="s">
         <v>105</v>
       </c>
@@ -7166,19 +7166,19 @@
       <c r="W11" s="37"/>
       <c r="X11" s="37"/>
       <c r="Y11" s="38"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="50"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="44"/>
     </row>
     <row r="12" spans="2:46">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -7193,13 +7193,13 @@
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
       <c r="Y12" s="41"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="53"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="47"/>
       <c r="AS12" t="s">
         <v>125</v>
       </c>
@@ -7222,13 +7222,13 @@
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="21"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="56"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="50"/>
       <c r="AS13" t="s">
         <v>126</v>
       </c>
@@ -7237,12 +7237,12 @@
       </c>
     </row>
     <row r="14" spans="2:46">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
       <c r="I14" s="36" t="s">
         <v>145</v>
       </c>
@@ -7263,10 +7263,10 @@
       <c r="Y14" s="38"/>
     </row>
     <row r="15" spans="2:46">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -7326,22 +7326,22 @@
       <c r="Y18" s="38"/>
     </row>
     <row r="19" spans="2:25">
-      <c r="S19" s="48"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="50"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="44"/>
     </row>
     <row r="20" spans="2:25" ht="14.25" customHeight="1">
-      <c r="S20" s="51"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="53"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="47"/>
     </row>
     <row r="21" spans="2:25">
       <c r="I21" s="36" t="s">
@@ -7353,13 +7353,13 @@
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
       <c r="O21" s="38"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="56"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="50"/>
     </row>
     <row r="22" spans="2:25">
       <c r="I22" s="39"/>
@@ -7425,11 +7425,11 @@
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
       <c r="V27" s="38"/>
-      <c r="W27" s="42" t="s">
+      <c r="W27" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="44"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="53"/>
     </row>
     <row r="28" spans="2:25">
       <c r="I28" s="39"/>
@@ -7443,9 +7443,9 @@
       <c r="T28" s="40"/>
       <c r="U28" s="40"/>
       <c r="V28" s="41"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="47"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="56"/>
     </row>
     <row r="29" spans="2:25">
       <c r="I29" s="19"/>
@@ -7507,16 +7507,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I30:O31"/>
-    <mergeCell ref="S18:Y21"/>
-    <mergeCell ref="AC10:AI13"/>
-    <mergeCell ref="AC4:AI7"/>
-    <mergeCell ref="I33:O34"/>
-    <mergeCell ref="I14:O15"/>
-    <mergeCell ref="I17:O18"/>
-    <mergeCell ref="I21:O22"/>
-    <mergeCell ref="I24:O25"/>
-    <mergeCell ref="I27:O28"/>
     <mergeCell ref="I2:O3"/>
     <mergeCell ref="S27:V28"/>
     <mergeCell ref="W27:Y28"/>
@@ -7532,6 +7522,16 @@
     <mergeCell ref="S14:Y15"/>
     <mergeCell ref="B24:E25"/>
     <mergeCell ref="B14:E15"/>
+    <mergeCell ref="I30:O31"/>
+    <mergeCell ref="S18:Y21"/>
+    <mergeCell ref="AC10:AI13"/>
+    <mergeCell ref="AC4:AI7"/>
+    <mergeCell ref="I33:O34"/>
+    <mergeCell ref="I14:O15"/>
+    <mergeCell ref="I17:O18"/>
+    <mergeCell ref="I21:O22"/>
+    <mergeCell ref="I24:O25"/>
+    <mergeCell ref="I27:O28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7669,7 +7669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -7878,390 +7878,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="89"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="T1" s="89" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="T1" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89" t="s">
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="2:34">
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="67" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="97" t="s">
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="97" t="s">
+      <c r="K2" s="61"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="93" t="s">
+      <c r="R2" s="61"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="87" t="s">
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="88"/>
+      <c r="AC2" s="89"/>
     </row>
     <row r="3" spans="2:34">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="71" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="88"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="89"/>
     </row>
     <row r="4" spans="2:34">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="67" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="97" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="97" t="s">
+      <c r="K4" s="61"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="98"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93" t="s">
+      <c r="R4" s="61"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="87" t="s">
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="88"/>
+      <c r="AC4" s="89"/>
     </row>
     <row r="5" spans="2:34">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="71" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="70" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="98"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="88"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="61"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="89"/>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="67" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="97" t="s">
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="98"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="97" t="s">
+      <c r="K6" s="61"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="98"/>
-      <c r="T6" s="95" t="s">
+      <c r="R6" s="61"/>
+      <c r="T6" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="71" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="70" t="s">
+      <c r="G7" s="75"/>
+      <c r="H7" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="98"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="98"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="61"/>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="67" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="97" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="98"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="97" t="s">
+      <c r="K8" s="61"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="98"/>
+      <c r="R8" s="61"/>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="105" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="107" t="s">
+      <c r="G9" s="78"/>
+      <c r="H9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="106"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="98"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="61"/>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="67" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="97" t="s">
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="98"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="97" t="s">
+      <c r="K10" s="61"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="98"/>
+      <c r="R10" s="61"/>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="98"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="98"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="61"/>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="67" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="97" t="s">
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="98"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="97" t="s">
+      <c r="K12" s="61"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="98"/>
+      <c r="R12" s="61"/>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="61"/>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="67" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="97" t="s">
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="M14" s="90" t="s">
+      <c r="K14" s="61"/>
+      <c r="M14" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
       <c r="S14" s="22" t="s">
         <v>139</v>
       </c>
@@ -8312,16 +8312,16 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
       <c r="S15" s="23"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
@@ -8358,62 +8358,62 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="67" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="97" t="s">
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="98"/>
-      <c r="S16" s="99" t="s">
+      <c r="K16" s="61"/>
+      <c r="S16" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="83"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="98"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:34">
       <c r="C19" s="1">
@@ -8466,530 +8466,530 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="59" t="s">
+      <c r="B20" s="58"/>
+      <c r="C20" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="84">
         <v>0</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="84">
         <v>0</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="84">
         <v>0</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="84">
         <v>0</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="84">
         <v>0</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="84">
         <v>0</v>
       </c>
-      <c r="J20" s="57">
+      <c r="J20" s="84">
         <v>0</v>
       </c>
-      <c r="K20" s="57">
+      <c r="K20" s="84">
         <v>0</v>
       </c>
-      <c r="L20" s="57">
+      <c r="L20" s="84">
         <v>0</v>
       </c>
-      <c r="M20" s="57">
+      <c r="M20" s="84">
         <v>0</v>
       </c>
-      <c r="N20" s="57">
+      <c r="N20" s="84">
         <v>0</v>
       </c>
-      <c r="O20" s="57">
+      <c r="O20" s="84">
         <v>0</v>
       </c>
-      <c r="P20" s="57">
+      <c r="P20" s="84">
         <v>0</v>
       </c>
-      <c r="Q20" s="57">
+      <c r="Q20" s="84">
         <v>0</v>
       </c>
-      <c r="R20" s="57">
+      <c r="R20" s="84">
         <v>0</v>
       </c>
-      <c r="S20" s="59">
+      <c r="S20" s="86">
         <v>0</v>
       </c>
-      <c r="T20" s="57">
+      <c r="T20" s="84">
         <v>0</v>
       </c>
-      <c r="U20" s="57">
+      <c r="U20" s="84">
         <v>0</v>
       </c>
-      <c r="V20" s="57">
+      <c r="V20" s="84">
         <v>0</v>
       </c>
-      <c r="W20" s="57">
+      <c r="W20" s="84">
         <v>0</v>
       </c>
-      <c r="X20" s="57">
+      <c r="X20" s="84">
         <v>0</v>
       </c>
-      <c r="Y20" s="57">
+      <c r="Y20" s="84">
         <v>0</v>
       </c>
-      <c r="Z20" s="57">
+      <c r="Z20" s="84">
         <v>0</v>
       </c>
-      <c r="AA20" s="57">
+      <c r="AA20" s="84">
         <v>0</v>
       </c>
-      <c r="AB20" s="57">
+      <c r="AB20" s="84">
         <v>0</v>
       </c>
-      <c r="AC20" s="57">
+      <c r="AC20" s="84">
         <v>0</v>
       </c>
-      <c r="AD20" s="57" t="s">
+      <c r="AD20" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="AE20" s="57" t="s">
+      <c r="AE20" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="AF20" s="57" t="s">
+      <c r="AF20" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="AG20" s="57" t="s">
+      <c r="AG20" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="AH20" s="61" t="s">
+      <c r="AH20" s="106" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="62"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="107"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65" t="s">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="65"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="59" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="57">
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="84">
         <v>0</v>
       </c>
-      <c r="X26" s="57">
+      <c r="X26" s="84">
         <v>0</v>
       </c>
-      <c r="Y26" s="57">
+      <c r="Y26" s="84">
         <v>0</v>
       </c>
-      <c r="Z26" s="57">
+      <c r="Z26" s="84">
         <v>0</v>
       </c>
-      <c r="AA26" s="57">
+      <c r="AA26" s="84">
         <v>0</v>
       </c>
-      <c r="AB26" s="57">
+      <c r="AB26" s="84">
         <v>0</v>
       </c>
-      <c r="AC26" s="57">
+      <c r="AC26" s="84">
         <v>0</v>
       </c>
-      <c r="AD26" s="57">
+      <c r="AD26" s="84">
         <v>0</v>
       </c>
-      <c r="AE26" s="57">
+      <c r="AE26" s="84">
         <v>0</v>
       </c>
-      <c r="AF26" s="57">
+      <c r="AF26" s="84">
         <v>0</v>
       </c>
-      <c r="AG26" s="57">
+      <c r="AG26" s="84">
         <v>0</v>
       </c>
-      <c r="AH26" s="61">
+      <c r="AH26" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="62"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="85"/>
+      <c r="AD27" s="85"/>
+      <c r="AE27" s="85"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="85"/>
+      <c r="AH27" s="107"/>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="86"/>
-      <c r="AE28" s="86"/>
-      <c r="AF28" s="86"/>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="86"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="105"/>
+      <c r="AH28" s="105"/>
     </row>
     <row r="29" spans="1:34">
       <c r="C29" s="1">
         <v>31</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="1">
         <v>0</v>
       </c>
       <c r="K29" s="1">
         <v>15</v>
       </c>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
       <c r="N29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="66" t="s">
+      <c r="B30" s="58"/>
+      <c r="C30" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="65" t="s">
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="66" t="s">
+      <c r="B32" s="58"/>
+      <c r="C32" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="65" t="s">
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
     </row>
     <row r="33" spans="1:39">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
     </row>
     <row r="35" spans="1:39">
       <c r="C35" s="1">
@@ -9034,160 +9034,160 @@
       </c>
     </row>
     <row r="36" spans="1:39">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65" t="s">
+      <c r="B36" s="58"/>
+      <c r="C36" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="H36" s="66" t="s">
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="H36" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="66" t="s">
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="80" t="s">
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="102"/>
+      <c r="X36" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="82"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="64"/>
     </row>
     <row r="37" spans="1:39">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="83"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="85"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="104"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="103"/>
+      <c r="U37" s="103"/>
+      <c r="V37" s="103"/>
+      <c r="W37" s="104"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="67"/>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="65" t="s">
+      <c r="B38" s="58"/>
+      <c r="C38" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="H38" s="66" t="s">
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="H38" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="66" t="s">
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="80" t="s">
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="102"/>
+      <c r="X38" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="Y38" s="81"/>
-      <c r="Z38" s="82"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="64"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="83"/>
-      <c r="Y39" s="84"/>
-      <c r="Z39" s="85"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="80"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="103"/>
+      <c r="U39" s="103"/>
+      <c r="V39" s="103"/>
+      <c r="W39" s="104"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="67"/>
     </row>
     <row r="40" spans="1:39">
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
-      <c r="T40" s="74"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="74"/>
-      <c r="W40" s="74"/>
-      <c r="X40" s="74"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="74"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="94"/>
+      <c r="Z40" s="94"/>
     </row>
     <row r="41" spans="1:39">
       <c r="C41" s="4"/>
@@ -9259,6 +9259,113 @@
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="H38:O39"/>
+    <mergeCell ref="P36:W37"/>
+    <mergeCell ref="P38:W39"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:AH23"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="C40:Z40"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="C26:V27"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="H36:O37"/>
+    <mergeCell ref="K32:N33"/>
+    <mergeCell ref="X36:Z37"/>
+    <mergeCell ref="C28:AH28"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:N31"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="AB2:AC3"/>
+    <mergeCell ref="AB4:AC5"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="T2:W3"/>
+    <mergeCell ref="X2:AA3"/>
+    <mergeCell ref="T4:W5"/>
+    <mergeCell ref="X4:AA5"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="M10:P11"/>
+    <mergeCell ref="M12:P13"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="M2:P3"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="M6:P7"/>
+    <mergeCell ref="S16:AH16"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A24:B25"/>
     <mergeCell ref="C24:AH25"/>
     <mergeCell ref="J4:K5"/>
@@ -9283,113 +9390,6 @@
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B16:E17"/>
     <mergeCell ref="F16:I17"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="S16:AH16"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="F14:I15"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="AB2:AC3"/>
-    <mergeCell ref="AB4:AC5"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="T2:W3"/>
-    <mergeCell ref="X2:AA3"/>
-    <mergeCell ref="T4:W5"/>
-    <mergeCell ref="X4:AA5"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="M10:P11"/>
-    <mergeCell ref="M12:P13"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="M2:P3"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="M6:P7"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="C26:V27"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="H36:O37"/>
-    <mergeCell ref="K32:N33"/>
-    <mergeCell ref="X36:Z37"/>
-    <mergeCell ref="C28:AH28"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:N31"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:F39"/>
-    <mergeCell ref="H38:O39"/>
-    <mergeCell ref="P36:W37"/>
-    <mergeCell ref="P38:W39"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:AH23"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="O20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9464,124 +9464,124 @@
       </c>
     </row>
     <row r="3" spans="2:33">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="57" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="66" t="s">
+      <c r="P3" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="134"/>
+      <c r="Q3" s="111"/>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="122"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="112"/>
     </row>
     <row r="6" spans="2:33" s="18" customFormat="1">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="130"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="110"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108" t="s">
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108" t="s">
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108" t="s">
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108" t="s">
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108" t="s">
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108" t="s">
+      <c r="W9" s="142"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="108"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="108" t="s">
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="142"/>
+      <c r="AD9" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="142"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -9590,14 +9590,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
       <c r="V10" s="7"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -9612,50 +9612,50 @@
       <c r="AG10" s="3"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="107" t="s">
+      <c r="B11" s="117"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="107" t="s">
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="115"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="118" t="s">
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="119"/>
-      <c r="AF11" s="119"/>
-      <c r="AG11" s="120"/>
+      <c r="AA11" s="151"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="151"/>
+      <c r="AD11" s="151"/>
+      <c r="AE11" s="151"/>
+      <c r="AF11" s="151"/>
+      <c r="AG11" s="152"/>
     </row>
     <row r="12" spans="2:33">
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -9664,14 +9664,14 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="122"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="112"/>
       <c r="V12" s="8"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -9736,76 +9736,76 @@
       </c>
     </row>
     <row r="16" spans="2:33">
-      <c r="E16" s="123" t="s">
+      <c r="E16" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="123">
+      <c r="G16" s="114">
         <v>0</v>
       </c>
-      <c r="H16" s="123" t="s">
+      <c r="H16" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="123" t="s">
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="59" t="s">
+      <c r="N16" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="77"/>
-      <c r="P16" s="123" t="s">
+      <c r="O16" s="97"/>
+      <c r="P16" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="59" t="s">
+      <c r="Q16" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="77"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="97"/>
     </row>
     <row r="17" spans="2:33">
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="126"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="118"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="79"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="99"/>
     </row>
     <row r="19" spans="2:33">
       <c r="B19" s="15"/>
@@ -9874,98 +9874,98 @@
       <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="2:33">
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="129"/>
-      <c r="AB20" s="129"/>
-      <c r="AC20" s="129"/>
-      <c r="AD20" s="129"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="130"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="109"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="110"/>
     </row>
     <row r="23" spans="2:33">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108" t="s">
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108" t="s">
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108" t="s">
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108" t="s">
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108" t="s">
+      <c r="S23" s="142"/>
+      <c r="T23" s="142"/>
+      <c r="U23" s="142"/>
+      <c r="V23" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="108" t="s">
+      <c r="W23" s="142"/>
+      <c r="X23" s="142"/>
+      <c r="Y23" s="142"/>
+      <c r="Z23" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="108" t="s">
+      <c r="AA23" s="142"/>
+      <c r="AB23" s="142"/>
+      <c r="AC23" s="142"/>
+      <c r="AD23" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
+      <c r="AE23" s="142"/>
+      <c r="AF23" s="142"/>
+      <c r="AG23" s="142"/>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="61"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -9974,14 +9974,14 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
       <c r="V24" s="7"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -9996,50 +9996,50 @@
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="107" t="s">
+      <c r="B25" s="117"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="107" t="s">
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="116"/>
-      <c r="Z25" s="118" t="s">
+      <c r="O25" s="129"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="119"/>
-      <c r="AC25" s="119"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="119"/>
-      <c r="AF25" s="119"/>
-      <c r="AG25" s="120"/>
+      <c r="AA25" s="151"/>
+      <c r="AB25" s="151"/>
+      <c r="AC25" s="151"/>
+      <c r="AD25" s="151"/>
+      <c r="AE25" s="151"/>
+      <c r="AF25" s="151"/>
+      <c r="AG25" s="152"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="112"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="114"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="148"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -10048,14 +10048,14 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="122"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="112"/>
       <c r="V26" s="8"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
@@ -10120,76 +10120,76 @@
       </c>
     </row>
     <row r="30" spans="2:33">
-      <c r="E30" s="123" t="s">
+      <c r="E30" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="132" t="s">
+      <c r="F30" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="123">
+      <c r="G30" s="114">
         <v>0</v>
       </c>
-      <c r="H30" s="123" t="s">
+      <c r="H30" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="123" t="s">
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="N30" s="59" t="s">
+      <c r="N30" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O30" s="77"/>
-      <c r="P30" s="123" t="s">
+      <c r="O30" s="97"/>
+      <c r="P30" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="Q30" s="59" t="s">
+      <c r="Q30" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="77"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="97"/>
     </row>
     <row r="31" spans="2:33">
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="126"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="118"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="79"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="99"/>
     </row>
     <row r="33" spans="2:33">
       <c r="B33" s="15"/>
@@ -10226,102 +10226,102 @@
       <c r="AG33" s="12"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129"/>
-      <c r="L34" s="129"/>
-      <c r="M34" s="129"/>
-      <c r="N34" s="129"/>
-      <c r="O34" s="129"/>
-      <c r="P34" s="129"/>
-      <c r="Q34" s="129"/>
-      <c r="R34" s="129"/>
-      <c r="S34" s="129"/>
-      <c r="T34" s="129"/>
-      <c r="U34" s="129"/>
-      <c r="V34" s="129"/>
-      <c r="W34" s="129"/>
-      <c r="X34" s="129"/>
-      <c r="Y34" s="129"/>
-      <c r="Z34" s="129"/>
-      <c r="AA34" s="129"/>
-      <c r="AB34" s="129"/>
-      <c r="AC34" s="129"/>
-      <c r="AD34" s="129"/>
-      <c r="AE34" s="129"/>
-      <c r="AF34" s="129"/>
-      <c r="AG34" s="130"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="109"/>
+      <c r="Z34" s="109"/>
+      <c r="AA34" s="109"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="109"/>
+      <c r="AD34" s="109"/>
+      <c r="AE34" s="109"/>
+      <c r="AF34" s="109"/>
+      <c r="AG34" s="110"/>
     </row>
     <row r="37" spans="2:33">
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="133" t="s">
+      <c r="C37" s="142"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="133" t="s">
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="133" t="s">
+      <c r="K37" s="142"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="O37" s="108"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="133" t="s">
+      <c r="O37" s="142"/>
+      <c r="P37" s="142"/>
+      <c r="Q37" s="142"/>
+      <c r="R37" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="S37" s="108"/>
-      <c r="T37" s="108"/>
-      <c r="U37" s="108"/>
-      <c r="V37" s="133" t="s">
+      <c r="S37" s="142"/>
+      <c r="T37" s="142"/>
+      <c r="U37" s="142"/>
+      <c r="V37" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="W37" s="108"/>
-      <c r="X37" s="108"/>
-      <c r="Y37" s="108"/>
-      <c r="Z37" s="133" t="s">
+      <c r="W37" s="142"/>
+      <c r="X37" s="142"/>
+      <c r="Y37" s="142"/>
+      <c r="Z37" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="AA37" s="108"/>
-      <c r="AB37" s="108"/>
-      <c r="AC37" s="108"/>
-      <c r="AD37" s="133" t="s">
+      <c r="AA37" s="142"/>
+      <c r="AB37" s="142"/>
+      <c r="AC37" s="142"/>
+      <c r="AD37" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="AE37" s="108"/>
-      <c r="AF37" s="108"/>
-      <c r="AG37" s="108"/>
+      <c r="AE37" s="142"/>
+      <c r="AF37" s="142"/>
+      <c r="AG37" s="142"/>
     </row>
     <row r="38" spans="2:33">
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="137"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="122"/>
       <c r="J38" s="7"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -10338,64 +10338,64 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="131" t="s">
+      <c r="Z38" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="AA38" s="136"/>
-      <c r="AB38" s="136"/>
-      <c r="AC38" s="136"/>
-      <c r="AD38" s="136"/>
-      <c r="AE38" s="136"/>
-      <c r="AF38" s="136"/>
-      <c r="AG38" s="137"/>
+      <c r="AA38" s="121"/>
+      <c r="AB38" s="121"/>
+      <c r="AC38" s="121"/>
+      <c r="AD38" s="121"/>
+      <c r="AE38" s="121"/>
+      <c r="AF38" s="121"/>
+      <c r="AG38" s="122"/>
     </row>
     <row r="39" spans="2:33">
-      <c r="B39" s="138"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="107" t="s">
+      <c r="B39" s="123"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="115"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="144" t="s">
+      <c r="K39" s="129"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
+      <c r="N39" s="129"/>
+      <c r="O39" s="129"/>
+      <c r="P39" s="129"/>
+      <c r="Q39" s="130"/>
+      <c r="R39" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="S39" s="115"/>
-      <c r="T39" s="115"/>
-      <c r="U39" s="115"/>
-      <c r="V39" s="115"/>
-      <c r="W39" s="115"/>
-      <c r="X39" s="115"/>
-      <c r="Y39" s="116"/>
-      <c r="Z39" s="138"/>
-      <c r="AA39" s="139"/>
-      <c r="AB39" s="139"/>
-      <c r="AC39" s="139"/>
-      <c r="AD39" s="139"/>
-      <c r="AE39" s="139"/>
-      <c r="AF39" s="139"/>
-      <c r="AG39" s="140"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="129"/>
+      <c r="U39" s="129"/>
+      <c r="V39" s="129"/>
+      <c r="W39" s="129"/>
+      <c r="X39" s="129"/>
+      <c r="Y39" s="130"/>
+      <c r="Z39" s="123"/>
+      <c r="AA39" s="124"/>
+      <c r="AB39" s="124"/>
+      <c r="AC39" s="124"/>
+      <c r="AD39" s="124"/>
+      <c r="AE39" s="124"/>
+      <c r="AF39" s="124"/>
+      <c r="AG39" s="125"/>
     </row>
     <row r="40" spans="2:33">
-      <c r="B40" s="141"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="143"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="128"/>
       <c r="J40" s="8"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -10412,14 +10412,14 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="141"/>
-      <c r="AA40" s="142"/>
-      <c r="AB40" s="142"/>
-      <c r="AC40" s="142"/>
-      <c r="AD40" s="142"/>
-      <c r="AE40" s="142"/>
-      <c r="AF40" s="142"/>
-      <c r="AG40" s="143"/>
+      <c r="Z40" s="126"/>
+      <c r="AA40" s="127"/>
+      <c r="AB40" s="127"/>
+      <c r="AC40" s="127"/>
+      <c r="AD40" s="127"/>
+      <c r="AE40" s="127"/>
+      <c r="AF40" s="127"/>
+      <c r="AG40" s="128"/>
     </row>
     <row r="43" spans="2:33">
       <c r="I43" s="11">
@@ -10472,113 +10472,174 @@
       </c>
     </row>
     <row r="44" spans="2:33">
-      <c r="I44" s="123" t="s">
+      <c r="I44" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="59" t="s">
+      <c r="J44" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="K44" s="77"/>
-      <c r="L44" s="123" t="s">
+      <c r="K44" s="97"/>
+      <c r="L44" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="M44" s="59" t="s">
+      <c r="M44" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="123">
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="114">
         <v>0</v>
       </c>
-      <c r="R44" s="132">
+      <c r="R44" s="143">
         <v>0</v>
       </c>
-      <c r="S44" s="123">
+      <c r="S44" s="114">
         <v>0</v>
       </c>
-      <c r="T44" s="145" t="s">
+      <c r="T44" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="U44" s="146"/>
-      <c r="V44" s="146"/>
-      <c r="W44" s="146"/>
-      <c r="X44" s="147"/>
+      <c r="U44" s="133"/>
+      <c r="V44" s="133"/>
+      <c r="W44" s="133"/>
+      <c r="X44" s="134"/>
     </row>
     <row r="45" spans="2:33">
-      <c r="I45" s="124"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="127"/>
-      <c r="P45" s="126"/>
-      <c r="Q45" s="124"/>
-      <c r="R45" s="124"/>
-      <c r="S45" s="124"/>
-      <c r="T45" s="148"/>
-      <c r="U45" s="149"/>
-      <c r="V45" s="149"/>
-      <c r="W45" s="149"/>
-      <c r="X45" s="150"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="115"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="115"/>
+      <c r="R45" s="115"/>
+      <c r="S45" s="115"/>
+      <c r="T45" s="135"/>
+      <c r="U45" s="136"/>
+      <c r="V45" s="136"/>
+      <c r="W45" s="136"/>
+      <c r="X45" s="137"/>
     </row>
     <row r="46" spans="2:33">
-      <c r="I46" s="125"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="125"/>
-      <c r="S46" s="125"/>
-      <c r="T46" s="151"/>
-      <c r="U46" s="152"/>
-      <c r="V46" s="152"/>
-      <c r="W46" s="152"/>
-      <c r="X46" s="153"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="138"/>
+      <c r="U46" s="139"/>
+      <c r="V46" s="139"/>
+      <c r="W46" s="139"/>
+      <c r="X46" s="140"/>
     </row>
     <row r="48" spans="2:33">
-      <c r="B48" s="128" t="s">
+      <c r="B48" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="129"/>
-      <c r="K48" s="129"/>
-      <c r="L48" s="129"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="129"/>
-      <c r="P48" s="129"/>
-      <c r="Q48" s="129"/>
-      <c r="R48" s="129"/>
-      <c r="S48" s="129"/>
-      <c r="T48" s="129"/>
-      <c r="U48" s="129"/>
-      <c r="V48" s="129"/>
-      <c r="W48" s="129"/>
-      <c r="X48" s="129"/>
-      <c r="Y48" s="129"/>
-      <c r="Z48" s="129"/>
-      <c r="AA48" s="129"/>
-      <c r="AB48" s="129"/>
-      <c r="AC48" s="129"/>
-      <c r="AD48" s="129"/>
-      <c r="AE48" s="129"/>
-      <c r="AF48" s="129"/>
-      <c r="AG48" s="130"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="109"/>
+      <c r="O48" s="109"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="109"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="109"/>
+      <c r="U48" s="109"/>
+      <c r="V48" s="109"/>
+      <c r="W48" s="109"/>
+      <c r="X48" s="109"/>
+      <c r="Y48" s="109"/>
+      <c r="Z48" s="109"/>
+      <c r="AA48" s="109"/>
+      <c r="AB48" s="109"/>
+      <c r="AC48" s="109"/>
+      <c r="AD48" s="109"/>
+      <c r="AE48" s="109"/>
+      <c r="AF48" s="109"/>
+      <c r="AG48" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="B10:E12"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:T18"/>
+    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:L18"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="B24:E26"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="N25:Y25"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="N30:O32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:T32"/>
+    <mergeCell ref="B34:AG34"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:L32"/>
+    <mergeCell ref="Q44:Q46"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:U37"/>
     <mergeCell ref="B48:AG48"/>
     <mergeCell ref="B3:N4"/>
     <mergeCell ref="B6:Q6"/>
@@ -10595,67 +10656,6 @@
     <mergeCell ref="S44:S46"/>
     <mergeCell ref="T44:X46"/>
     <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="Q44:Q46"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="N30:O32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="Q30:T32"/>
-    <mergeCell ref="B34:AG34"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:L32"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="B24:E26"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="N25:Y25"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:T18"/>
-    <mergeCell ref="B20:AG20"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:L18"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="B10:E12"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10685,55 +10685,55 @@
       <c r="D2" s="154" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="134"/>
+      <c r="E2" s="111"/>
       <c r="G2" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="155"/>
-      <c r="E3" s="116"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="155"/>
-      <c r="E4" s="116"/>
+      <c r="E4" s="130"/>
       <c r="G4" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="155"/>
-      <c r="E5" s="116"/>
+      <c r="E5" s="130"/>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="155"/>
-      <c r="E6" s="116"/>
+      <c r="E6" s="130"/>
       <c r="G6" s="24" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="D7" s="155"/>
-      <c r="E7" s="116"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:7">
       <c r="D8" s="155"/>
-      <c r="E8" s="116"/>
+      <c r="E8" s="130"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="25"/>
       <c r="D9" s="155"/>
-      <c r="E9" s="116"/>
+      <c r="E9" s="130"/>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="112"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -10746,12 +10746,12 @@
       <c r="D11" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="134"/>
+      <c r="E11" s="111"/>
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7">
       <c r="D12" s="155"/>
-      <c r="E12" s="116"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="24" t="s">
         <v>349</v>
       </c>
@@ -10767,8 +10767,8 @@
       <c r="C13" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="122"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="112"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -10781,31 +10781,31 @@
       <c r="D14" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="134"/>
+      <c r="E14" s="111"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
       <c r="D15" s="155"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="130"/>
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7">
       <c r="D16" s="155"/>
-      <c r="E16" s="116"/>
+      <c r="E16" s="130"/>
       <c r="F16" s="24" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="D17" s="155"/>
-      <c r="E17" s="116"/>
+      <c r="E17" s="130"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="122"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="112"/>
     </row>
     <row r="20" spans="3:5">
       <c r="D20" s="24" t="s">
@@ -11035,8 +11035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/笔记/汇编语言笔记.xlsx
+++ b/笔记/汇编语言笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="3195" windowWidth="15315" windowHeight="3240" activeTab="10"/>
+    <workbookView xWindow="-15" yWindow="3195" windowWidth="15315" windowHeight="3240" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="结构图" sheetId="3" r:id="rId1"/>
@@ -4621,6 +4621,24 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4648,23 +4666,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4675,107 +4693,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4793,28 +4733,148 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4826,36 +4886,21 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4880,12 +4925,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4914,45 +4953,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6941,7 +6941,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:AT34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
@@ -7022,13 +7022,13 @@
       <c r="W5" s="37"/>
       <c r="X5" s="37"/>
       <c r="Y5" s="38"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="44"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="50"/>
     </row>
     <row r="6" spans="2:46">
       <c r="B6" s="39"/>
@@ -7049,13 +7049,13 @@
       <c r="W6" s="40"/>
       <c r="X6" s="40"/>
       <c r="Y6" s="41"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="47"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="53"/>
     </row>
     <row r="7" spans="2:46">
       <c r="I7" s="19"/>
@@ -7072,13 +7072,13 @@
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="21"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="50"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="56"/>
     </row>
     <row r="8" spans="2:46" ht="14.25" customHeight="1">
       <c r="I8" s="36" t="s">
@@ -7142,12 +7142,12 @@
       <c r="AI10" s="38"/>
     </row>
     <row r="11" spans="2:46" ht="14.25" customHeight="1">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
       <c r="I11" s="36" t="s">
         <v>105</v>
       </c>
@@ -7166,19 +7166,19 @@
       <c r="W11" s="37"/>
       <c r="X11" s="37"/>
       <c r="Y11" s="38"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="44"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="50"/>
     </row>
     <row r="12" spans="2:46">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -7193,13 +7193,13 @@
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
       <c r="Y12" s="41"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="47"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="53"/>
       <c r="AS12" t="s">
         <v>125</v>
       </c>
@@ -7222,13 +7222,13 @@
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="21"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="50"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="56"/>
       <c r="AS13" t="s">
         <v>126</v>
       </c>
@@ -7237,12 +7237,12 @@
       </c>
     </row>
     <row r="14" spans="2:46">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
       <c r="I14" s="36" t="s">
         <v>145</v>
       </c>
@@ -7263,10 +7263,10 @@
       <c r="Y14" s="38"/>
     </row>
     <row r="15" spans="2:46">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -7326,22 +7326,22 @@
       <c r="Y18" s="38"/>
     </row>
     <row r="19" spans="2:25">
-      <c r="S19" s="42"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="44"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="50"/>
     </row>
     <row r="20" spans="2:25" ht="14.25" customHeight="1">
-      <c r="S20" s="45"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="47"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="53"/>
     </row>
     <row r="21" spans="2:25">
       <c r="I21" s="36" t="s">
@@ -7353,13 +7353,13 @@
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
       <c r="O21" s="38"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="50"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="56"/>
     </row>
     <row r="22" spans="2:25">
       <c r="I22" s="39"/>
@@ -7425,11 +7425,11 @@
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
       <c r="V27" s="38"/>
-      <c r="W27" s="51" t="s">
+      <c r="W27" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="53"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="44"/>
     </row>
     <row r="28" spans="2:25">
       <c r="I28" s="39"/>
@@ -7443,9 +7443,9 @@
       <c r="T28" s="40"/>
       <c r="U28" s="40"/>
       <c r="V28" s="41"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="56"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="47"/>
     </row>
     <row r="29" spans="2:25">
       <c r="I29" s="19"/>
@@ -7507,6 +7507,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I30:O31"/>
+    <mergeCell ref="S18:Y21"/>
+    <mergeCell ref="AC10:AI13"/>
+    <mergeCell ref="AC4:AI7"/>
+    <mergeCell ref="I33:O34"/>
+    <mergeCell ref="I14:O15"/>
+    <mergeCell ref="I17:O18"/>
+    <mergeCell ref="I21:O22"/>
+    <mergeCell ref="I24:O25"/>
+    <mergeCell ref="I27:O28"/>
     <mergeCell ref="I2:O3"/>
     <mergeCell ref="S27:V28"/>
     <mergeCell ref="W27:Y28"/>
@@ -7522,16 +7532,6 @@
     <mergeCell ref="S14:Y15"/>
     <mergeCell ref="B24:E25"/>
     <mergeCell ref="B14:E15"/>
-    <mergeCell ref="I30:O31"/>
-    <mergeCell ref="S18:Y21"/>
-    <mergeCell ref="AC10:AI13"/>
-    <mergeCell ref="AC4:AI7"/>
-    <mergeCell ref="I33:O34"/>
-    <mergeCell ref="I14:O15"/>
-    <mergeCell ref="I17:O18"/>
-    <mergeCell ref="I21:O22"/>
-    <mergeCell ref="I24:O25"/>
-    <mergeCell ref="I27:O28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7669,7 +7669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -7868,8 +7868,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="AI37" sqref="AI37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7878,390 +7878,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="82"/>
+      <c r="I1" s="89"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="T1" s="82" t="s">
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="T1" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82" t="s">
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="2:34">
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="68" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="60" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="60" t="s">
+      <c r="K2" s="98"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="91" t="s">
+      <c r="R2" s="98"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="88" t="s">
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="89"/>
+      <c r="AC2" s="88"/>
     </row>
     <row r="3" spans="2:34">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="80" t="s">
+      <c r="G3" s="104"/>
+      <c r="H3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="75"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="61"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="89"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="88"/>
     </row>
     <row r="4" spans="2:34">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="68" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="60" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="60" t="s">
+      <c r="K4" s="98"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="61"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="91" t="s">
+      <c r="R4" s="98"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="88" t="s">
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="89"/>
+      <c r="AC4" s="88"/>
     </row>
     <row r="5" spans="2:34">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="104"/>
+      <c r="H5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="61"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="89"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="98"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="88"/>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="68" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="60" t="s">
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="60" t="s">
+      <c r="K6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="61"/>
-      <c r="T6" s="93" t="s">
+      <c r="R6" s="98"/>
+      <c r="T6" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="80" t="s">
+      <c r="G7" s="104"/>
+      <c r="H7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="98"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="98"/>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="68" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="60" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="60" t="s">
+      <c r="K8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="61"/>
+      <c r="R8" s="98"/>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="79" t="s">
+      <c r="G9" s="106"/>
+      <c r="H9" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="68" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="60" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="60" t="s">
+      <c r="K10" s="98"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="61"/>
+      <c r="R10" s="98"/>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="61"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="98"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="68" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="60" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="60" t="s">
+      <c r="K12" s="98"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="61"/>
+      <c r="R12" s="98"/>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="61"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="68" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="60" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="61"/>
-      <c r="M14" s="81" t="s">
+      <c r="K14" s="98"/>
+      <c r="M14" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
       <c r="S14" s="22" t="s">
         <v>139</v>
       </c>
@@ -8312,16 +8312,16 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
       <c r="S15" s="23"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
@@ -8358,62 +8358,62 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="68" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="60" t="s">
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="61"/>
-      <c r="S16" s="83" t="s">
+      <c r="K16" s="98"/>
+      <c r="S16" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="98"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
     </row>
     <row r="19" spans="1:34">
       <c r="C19" s="1">
@@ -8466,530 +8466,530 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="86" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="57">
         <v>0</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="57">
         <v>0</v>
       </c>
-      <c r="F20" s="84">
+      <c r="F20" s="57">
         <v>0</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="57">
         <v>0</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="57">
         <v>0</v>
       </c>
-      <c r="I20" s="84">
+      <c r="I20" s="57">
         <v>0</v>
       </c>
-      <c r="J20" s="84">
+      <c r="J20" s="57">
         <v>0</v>
       </c>
-      <c r="K20" s="84">
+      <c r="K20" s="57">
         <v>0</v>
       </c>
-      <c r="L20" s="84">
+      <c r="L20" s="57">
         <v>0</v>
       </c>
-      <c r="M20" s="84">
+      <c r="M20" s="57">
         <v>0</v>
       </c>
-      <c r="N20" s="84">
+      <c r="N20" s="57">
         <v>0</v>
       </c>
-      <c r="O20" s="84">
+      <c r="O20" s="57">
         <v>0</v>
       </c>
-      <c r="P20" s="84">
+      <c r="P20" s="57">
         <v>0</v>
       </c>
-      <c r="Q20" s="84">
+      <c r="Q20" s="57">
         <v>0</v>
       </c>
-      <c r="R20" s="84">
+      <c r="R20" s="57">
         <v>0</v>
       </c>
-      <c r="S20" s="86">
+      <c r="S20" s="59">
         <v>0</v>
       </c>
-      <c r="T20" s="84">
+      <c r="T20" s="57">
         <v>0</v>
       </c>
-      <c r="U20" s="84">
+      <c r="U20" s="57">
         <v>0</v>
       </c>
-      <c r="V20" s="84">
+      <c r="V20" s="57">
         <v>0</v>
       </c>
-      <c r="W20" s="84">
+      <c r="W20" s="57">
         <v>0</v>
       </c>
-      <c r="X20" s="84">
+      <c r="X20" s="57">
         <v>0</v>
       </c>
-      <c r="Y20" s="84">
+      <c r="Y20" s="57">
         <v>0</v>
       </c>
-      <c r="Z20" s="84">
+      <c r="Z20" s="57">
         <v>0</v>
       </c>
-      <c r="AA20" s="84">
+      <c r="AA20" s="57">
         <v>0</v>
       </c>
-      <c r="AB20" s="84">
+      <c r="AB20" s="57">
         <v>0</v>
       </c>
-      <c r="AC20" s="84">
+      <c r="AC20" s="57">
         <v>0</v>
       </c>
-      <c r="AD20" s="84" t="s">
+      <c r="AD20" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AE20" s="84" t="s">
+      <c r="AE20" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AF20" s="84" t="s">
+      <c r="AF20" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AG20" s="84" t="s">
+      <c r="AG20" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AH20" s="106" t="s">
+      <c r="AH20" s="61" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="85"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="85"/>
-      <c r="AH21" s="107"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="62"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="57"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="86" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="84">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="57">
         <v>0</v>
       </c>
-      <c r="X26" s="84">
+      <c r="X26" s="57">
         <v>0</v>
       </c>
-      <c r="Y26" s="84">
+      <c r="Y26" s="57">
         <v>0</v>
       </c>
-      <c r="Z26" s="84">
+      <c r="Z26" s="57">
         <v>0</v>
       </c>
-      <c r="AA26" s="84">
+      <c r="AA26" s="57">
         <v>0</v>
       </c>
-      <c r="AB26" s="84">
+      <c r="AB26" s="57">
         <v>0</v>
       </c>
-      <c r="AC26" s="84">
+      <c r="AC26" s="57">
         <v>0</v>
       </c>
-      <c r="AD26" s="84">
+      <c r="AD26" s="57">
         <v>0</v>
       </c>
-      <c r="AE26" s="84">
+      <c r="AE26" s="57">
         <v>0</v>
       </c>
-      <c r="AF26" s="84">
+      <c r="AF26" s="57">
         <v>0</v>
       </c>
-      <c r="AG26" s="84">
+      <c r="AG26" s="57">
         <v>0</v>
       </c>
-      <c r="AH26" s="106">
+      <c r="AH26" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="57"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="107"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="62"/>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="105" t="s">
+      <c r="C28" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="105"/>
-      <c r="AB28" s="105"/>
-      <c r="AC28" s="105"/>
-      <c r="AD28" s="105"/>
-      <c r="AE28" s="105"/>
-      <c r="AF28" s="105"/>
-      <c r="AG28" s="105"/>
-      <c r="AH28" s="105"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
+      <c r="AE28" s="86"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
     </row>
     <row r="29" spans="1:34">
       <c r="C29" s="1">
         <v>31</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="1">
         <v>0</v>
       </c>
       <c r="K29" s="1">
         <v>15</v>
       </c>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
       <c r="N29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="100" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="59" t="s">
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="57"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="100" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="59" t="s">
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
     </row>
     <row r="33" spans="1:39">
-      <c r="A33" s="57"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
     </row>
     <row r="35" spans="1:39">
       <c r="C35" s="1">
@@ -9034,160 +9034,160 @@
       </c>
     </row>
     <row r="36" spans="1:39">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="59" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="H36" s="100" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="H36" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="100" t="s">
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="102"/>
-      <c r="X36" s="62" t="s">
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="64"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="82"/>
     </row>
     <row r="37" spans="1:39">
-      <c r="A37" s="57"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="103"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="103"/>
-      <c r="W37" s="104"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="67"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="83"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="85"/>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59" t="s">
+      <c r="B38" s="64"/>
+      <c r="C38" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="H38" s="100" t="s">
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="H38" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="100" t="s">
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="101"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="102"/>
-      <c r="X38" s="62" t="s">
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="64"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="82"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39" s="57"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="80"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="103"/>
-      <c r="U39" s="103"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="104"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="67"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="85"/>
     </row>
     <row r="40" spans="1:39">
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="94"/>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="94"/>
-      <c r="Z40" s="94"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="74"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="74"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="74"/>
     </row>
     <row r="41" spans="1:39">
       <c r="C41" s="4"/>
@@ -9259,6 +9259,113 @@
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:AH25"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="X38:Z39"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="F10:I11"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="M8:P9"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="S16:AH16"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="AB2:AC3"/>
+    <mergeCell ref="AB4:AC5"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="T2:W3"/>
+    <mergeCell ref="X2:AA3"/>
+    <mergeCell ref="T4:W5"/>
+    <mergeCell ref="X4:AA5"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="M10:P11"/>
+    <mergeCell ref="M12:P13"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="M2:P3"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="M6:P7"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="C40:Z40"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="C26:V27"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="H36:O37"/>
+    <mergeCell ref="K32:N33"/>
+    <mergeCell ref="X36:Z37"/>
+    <mergeCell ref="C28:AH28"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:N31"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="AB20:AB21"/>
     <mergeCell ref="S20:S21"/>
     <mergeCell ref="T20:T21"/>
@@ -9283,113 +9390,6 @@
     <mergeCell ref="AD20:AD21"/>
     <mergeCell ref="AE20:AE21"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="C26:V27"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="H36:O37"/>
-    <mergeCell ref="K32:N33"/>
-    <mergeCell ref="X36:Z37"/>
-    <mergeCell ref="C28:AH28"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:N31"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="AB2:AC3"/>
-    <mergeCell ref="AB4:AC5"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="T2:W3"/>
-    <mergeCell ref="X2:AA3"/>
-    <mergeCell ref="T4:W5"/>
-    <mergeCell ref="X4:AA5"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="M10:P11"/>
-    <mergeCell ref="M12:P13"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="M2:P3"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="M6:P7"/>
-    <mergeCell ref="S16:AH16"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="F14:I15"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:AH25"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="X38:Z39"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="F10:I11"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="M8:P9"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9464,124 +9464,124 @@
       </c>
     </row>
     <row r="3" spans="2:33">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="84" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="100" t="s">
+      <c r="P3" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="111"/>
+      <c r="Q3" s="134"/>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="80"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="112"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="122"/>
     </row>
     <row r="6" spans="2:33" s="18" customFormat="1">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="110"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="130"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142" t="s">
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142" t="s">
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="142"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="142"/>
-      <c r="V9" s="142" t="s">
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="W9" s="142"/>
-      <c r="X9" s="142"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="142" t="s">
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="142"/>
-      <c r="AD9" s="142" t="s">
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="108"/>
+      <c r="AD9" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="142"/>
-      <c r="AG9" s="142"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="108"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="106"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -9590,14 +9590,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
-      <c r="U10" s="129"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
       <c r="V10" s="7"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -9612,50 +9612,50 @@
       <c r="AG10" s="3"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="117"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="79" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="79" t="s">
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="149"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="150" t="s">
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="151"/>
-      <c r="AE11" s="151"/>
-      <c r="AF11" s="151"/>
-      <c r="AG11" s="152"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="119"/>
+      <c r="AF11" s="119"/>
+      <c r="AG11" s="120"/>
     </row>
     <row r="12" spans="2:33">
-      <c r="B12" s="146"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="148"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -9664,14 +9664,14 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="112"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="122"/>
       <c r="V12" s="8"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -9736,76 +9736,76 @@
       </c>
     </row>
     <row r="16" spans="2:33">
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="114">
+      <c r="G16" s="123">
         <v>0</v>
       </c>
-      <c r="H16" s="114" t="s">
+      <c r="H16" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="86" t="s">
+      <c r="I16" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="114" t="s">
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="86" t="s">
+      <c r="N16" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="97"/>
-      <c r="P16" s="114" t="s">
+      <c r="O16" s="77"/>
+      <c r="P16" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="86" t="s">
+      <c r="Q16" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="97"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="77"/>
     </row>
     <row r="17" spans="2:33">
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="118"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="126"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="99"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="79"/>
     </row>
     <row r="19" spans="2:33">
       <c r="B19" s="15"/>
@@ -9874,98 +9874,98 @@
       <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="2:33">
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="110"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="129"/>
+      <c r="Z20" s="129"/>
+      <c r="AA20" s="129"/>
+      <c r="AB20" s="129"/>
+      <c r="AC20" s="129"/>
+      <c r="AD20" s="129"/>
+      <c r="AE20" s="129"/>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="130"/>
     </row>
     <row r="23" spans="2:33">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142" t="s">
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142" t="s">
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="142"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142" t="s">
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="142"/>
-      <c r="T23" s="142"/>
-      <c r="U23" s="142"/>
-      <c r="V23" s="142" t="s">
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="W23" s="142"/>
-      <c r="X23" s="142"/>
-      <c r="Y23" s="142"/>
-      <c r="Z23" s="142" t="s">
+      <c r="W23" s="108"/>
+      <c r="X23" s="108"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="AA23" s="142"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="142"/>
-      <c r="AD23" s="142" t="s">
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="108"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="AE23" s="142"/>
-      <c r="AF23" s="142"/>
-      <c r="AG23" s="142"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="108"/>
+      <c r="AG23" s="108"/>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="106"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -9974,14 +9974,14 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
       <c r="V24" s="7"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -9996,50 +9996,50 @@
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="117"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="79" t="s">
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="79" t="s">
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="129"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
-      <c r="U25" s="149"/>
-      <c r="V25" s="129"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="129"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="150" t="s">
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="115"/>
+      <c r="T25" s="115"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="115"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="AA25" s="151"/>
-      <c r="AB25" s="151"/>
-      <c r="AC25" s="151"/>
-      <c r="AD25" s="151"/>
-      <c r="AE25" s="151"/>
-      <c r="AF25" s="151"/>
-      <c r="AG25" s="152"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="119"/>
+      <c r="AF25" s="119"/>
+      <c r="AG25" s="120"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="146"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="148"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -10048,14 +10048,14 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="112"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="122"/>
       <c r="V26" s="8"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
@@ -10120,76 +10120,76 @@
       </c>
     </row>
     <row r="30" spans="2:33">
-      <c r="E30" s="114" t="s">
+      <c r="E30" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="143" t="s">
+      <c r="F30" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="114">
+      <c r="G30" s="123">
         <v>0</v>
       </c>
-      <c r="H30" s="114" t="s">
+      <c r="H30" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="86" t="s">
+      <c r="I30" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="114" t="s">
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="N30" s="86" t="s">
+      <c r="N30" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="O30" s="97"/>
-      <c r="P30" s="114" t="s">
+      <c r="O30" s="77"/>
+      <c r="P30" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="Q30" s="86" t="s">
+      <c r="Q30" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="97"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="77"/>
     </row>
     <row r="31" spans="2:33">
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
-      <c r="T31" s="118"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="124"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="124"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="126"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="99"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="79"/>
     </row>
     <row r="33" spans="2:33">
       <c r="B33" s="15"/>
@@ -10226,102 +10226,102 @@
       <c r="AG33" s="12"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="109"/>
-      <c r="V34" s="109"/>
-      <c r="W34" s="109"/>
-      <c r="X34" s="109"/>
-      <c r="Y34" s="109"/>
-      <c r="Z34" s="109"/>
-      <c r="AA34" s="109"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="109"/>
-      <c r="AD34" s="109"/>
-      <c r="AE34" s="109"/>
-      <c r="AF34" s="109"/>
-      <c r="AG34" s="110"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="129"/>
+      <c r="V34" s="129"/>
+      <c r="W34" s="129"/>
+      <c r="X34" s="129"/>
+      <c r="Y34" s="129"/>
+      <c r="Z34" s="129"/>
+      <c r="AA34" s="129"/>
+      <c r="AB34" s="129"/>
+      <c r="AC34" s="129"/>
+      <c r="AD34" s="129"/>
+      <c r="AE34" s="129"/>
+      <c r="AF34" s="129"/>
+      <c r="AG34" s="130"/>
     </row>
     <row r="37" spans="2:33">
-      <c r="B37" s="141" t="s">
+      <c r="B37" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="141" t="s">
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="141" t="s">
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="142"/>
-      <c r="L37" s="142"/>
-      <c r="M37" s="142"/>
-      <c r="N37" s="141" t="s">
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="O37" s="142"/>
-      <c r="P37" s="142"/>
-      <c r="Q37" s="142"/>
-      <c r="R37" s="141" t="s">
+      <c r="O37" s="108"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="S37" s="142"/>
-      <c r="T37" s="142"/>
-      <c r="U37" s="142"/>
-      <c r="V37" s="141" t="s">
+      <c r="S37" s="108"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="W37" s="142"/>
-      <c r="X37" s="142"/>
-      <c r="Y37" s="142"/>
-      <c r="Z37" s="141" t="s">
+      <c r="W37" s="108"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="AA37" s="142"/>
-      <c r="AB37" s="142"/>
-      <c r="AC37" s="142"/>
-      <c r="AD37" s="141" t="s">
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="AE37" s="142"/>
-      <c r="AF37" s="142"/>
-      <c r="AG37" s="142"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="108"/>
     </row>
     <row r="38" spans="2:33">
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="122"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="137"/>
       <c r="J38" s="7"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -10338,64 +10338,64 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="120" t="s">
+      <c r="Z38" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="AA38" s="121"/>
-      <c r="AB38" s="121"/>
-      <c r="AC38" s="121"/>
-      <c r="AD38" s="121"/>
-      <c r="AE38" s="121"/>
-      <c r="AF38" s="121"/>
-      <c r="AG38" s="122"/>
+      <c r="AA38" s="136"/>
+      <c r="AB38" s="136"/>
+      <c r="AC38" s="136"/>
+      <c r="AD38" s="136"/>
+      <c r="AE38" s="136"/>
+      <c r="AF38" s="136"/>
+      <c r="AG38" s="137"/>
     </row>
     <row r="39" spans="2:33">
-      <c r="B39" s="123"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="79" t="s">
+      <c r="B39" s="138"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="129"/>
-      <c r="O39" s="129"/>
-      <c r="P39" s="129"/>
-      <c r="Q39" s="130"/>
-      <c r="R39" s="131" t="s">
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="116"/>
+      <c r="R39" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="S39" s="129"/>
-      <c r="T39" s="129"/>
-      <c r="U39" s="129"/>
-      <c r="V39" s="129"/>
-      <c r="W39" s="129"/>
-      <c r="X39" s="129"/>
-      <c r="Y39" s="130"/>
-      <c r="Z39" s="123"/>
-      <c r="AA39" s="124"/>
-      <c r="AB39" s="124"/>
-      <c r="AC39" s="124"/>
-      <c r="AD39" s="124"/>
-      <c r="AE39" s="124"/>
-      <c r="AF39" s="124"/>
-      <c r="AG39" s="125"/>
+      <c r="S39" s="115"/>
+      <c r="T39" s="115"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="115"/>
+      <c r="W39" s="115"/>
+      <c r="X39" s="115"/>
+      <c r="Y39" s="116"/>
+      <c r="Z39" s="138"/>
+      <c r="AA39" s="139"/>
+      <c r="AB39" s="139"/>
+      <c r="AC39" s="139"/>
+      <c r="AD39" s="139"/>
+      <c r="AE39" s="139"/>
+      <c r="AF39" s="139"/>
+      <c r="AG39" s="140"/>
     </row>
     <row r="40" spans="2:33">
-      <c r="B40" s="126"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="128"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="143"/>
       <c r="J40" s="8"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -10412,14 +10412,14 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="126"/>
-      <c r="AA40" s="127"/>
-      <c r="AB40" s="127"/>
-      <c r="AC40" s="127"/>
-      <c r="AD40" s="127"/>
-      <c r="AE40" s="127"/>
-      <c r="AF40" s="127"/>
-      <c r="AG40" s="128"/>
+      <c r="Z40" s="141"/>
+      <c r="AA40" s="142"/>
+      <c r="AB40" s="142"/>
+      <c r="AC40" s="142"/>
+      <c r="AD40" s="142"/>
+      <c r="AE40" s="142"/>
+      <c r="AF40" s="142"/>
+      <c r="AG40" s="143"/>
     </row>
     <row r="43" spans="2:33">
       <c r="I43" s="11">
@@ -10472,113 +10472,174 @@
       </c>
     </row>
     <row r="44" spans="2:33">
-      <c r="I44" s="114" t="s">
+      <c r="I44" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="K44" s="97"/>
-      <c r="L44" s="114" t="s">
+      <c r="K44" s="77"/>
+      <c r="L44" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="M44" s="86" t="s">
+      <c r="M44" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="114">
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="123">
         <v>0</v>
       </c>
-      <c r="R44" s="143">
+      <c r="R44" s="132">
         <v>0</v>
       </c>
-      <c r="S44" s="114">
+      <c r="S44" s="123">
         <v>0</v>
       </c>
-      <c r="T44" s="132" t="s">
+      <c r="T44" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="U44" s="133"/>
-      <c r="V44" s="133"/>
-      <c r="W44" s="133"/>
-      <c r="X44" s="134"/>
+      <c r="U44" s="146"/>
+      <c r="V44" s="146"/>
+      <c r="W44" s="146"/>
+      <c r="X44" s="147"/>
     </row>
     <row r="45" spans="2:33">
-      <c r="I45" s="115"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="117"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="115"/>
-      <c r="R45" s="115"/>
-      <c r="S45" s="115"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="136"/>
-      <c r="V45" s="136"/>
-      <c r="W45" s="136"/>
-      <c r="X45" s="137"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="127"/>
+      <c r="P45" s="126"/>
+      <c r="Q45" s="124"/>
+      <c r="R45" s="124"/>
+      <c r="S45" s="124"/>
+      <c r="T45" s="148"/>
+      <c r="U45" s="149"/>
+      <c r="V45" s="149"/>
+      <c r="W45" s="149"/>
+      <c r="X45" s="150"/>
     </row>
     <row r="46" spans="2:33">
-      <c r="I46" s="116"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="99"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-      <c r="S46" s="116"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="139"/>
-      <c r="V46" s="139"/>
-      <c r="W46" s="139"/>
-      <c r="X46" s="140"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="151"/>
+      <c r="U46" s="152"/>
+      <c r="V46" s="152"/>
+      <c r="W46" s="152"/>
+      <c r="X46" s="153"/>
     </row>
     <row r="48" spans="2:33">
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="109"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="109"/>
-      <c r="T48" s="109"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="109"/>
-      <c r="W48" s="109"/>
-      <c r="X48" s="109"/>
-      <c r="Y48" s="109"/>
-      <c r="Z48" s="109"/>
-      <c r="AA48" s="109"/>
-      <c r="AB48" s="109"/>
-      <c r="AC48" s="109"/>
-      <c r="AD48" s="109"/>
-      <c r="AE48" s="109"/>
-      <c r="AF48" s="109"/>
-      <c r="AG48" s="110"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="129"/>
+      <c r="V48" s="129"/>
+      <c r="W48" s="129"/>
+      <c r="X48" s="129"/>
+      <c r="Y48" s="129"/>
+      <c r="Z48" s="129"/>
+      <c r="AA48" s="129"/>
+      <c r="AB48" s="129"/>
+      <c r="AC48" s="129"/>
+      <c r="AD48" s="129"/>
+      <c r="AE48" s="129"/>
+      <c r="AF48" s="129"/>
+      <c r="AG48" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B48:AG48"/>
+    <mergeCell ref="B3:N4"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:K46"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="M44:P46"/>
+    <mergeCell ref="B38:I40"/>
+    <mergeCell ref="Z38:AG40"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:Y39"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="T44:X46"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="Q44:Q46"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="N30:O32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:T32"/>
+    <mergeCell ref="B34:AG34"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:L32"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="B24:E26"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="N25:Y25"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:T18"/>
+    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:L18"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
@@ -10595,67 +10656,6 @@
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:T18"/>
-    <mergeCell ref="B20:AG20"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:L18"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="B24:E26"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="N25:Y25"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="N30:O32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="Q30:T32"/>
-    <mergeCell ref="B34:AG34"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:L32"/>
-    <mergeCell ref="Q44:Q46"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="B48:AG48"/>
-    <mergeCell ref="B3:N4"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:K46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="M44:P46"/>
-    <mergeCell ref="B38:I40"/>
-    <mergeCell ref="Z38:AG40"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:Y39"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="T44:X46"/>
-    <mergeCell ref="V37:Y37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10685,55 +10685,55 @@
       <c r="D2" s="154" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="111"/>
+      <c r="E2" s="134"/>
       <c r="G2" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="155"/>
-      <c r="E3" s="130"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="155"/>
-      <c r="E4" s="130"/>
+      <c r="E4" s="116"/>
       <c r="G4" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="155"/>
-      <c r="E5" s="130"/>
+      <c r="E5" s="116"/>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="155"/>
-      <c r="E6" s="130"/>
+      <c r="E6" s="116"/>
       <c r="G6" s="24" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="D7" s="155"/>
-      <c r="E7" s="130"/>
+      <c r="E7" s="116"/>
     </row>
     <row r="8" spans="1:7">
       <c r="D8" s="155"/>
-      <c r="E8" s="130"/>
+      <c r="E8" s="116"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="25"/>
       <c r="D9" s="155"/>
-      <c r="E9" s="130"/>
+      <c r="E9" s="116"/>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="112"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="122"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -10746,12 +10746,12 @@
       <c r="D11" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="134"/>
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7">
       <c r="D12" s="155"/>
-      <c r="E12" s="130"/>
+      <c r="E12" s="116"/>
       <c r="F12" s="24" t="s">
         <v>349</v>
       </c>
@@ -10767,8 +10767,8 @@
       <c r="C13" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="112"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="122"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -10781,31 +10781,31 @@
       <c r="D14" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="111"/>
+      <c r="E14" s="134"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
       <c r="D15" s="155"/>
-      <c r="E15" s="130"/>
+      <c r="E15" s="116"/>
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7">
       <c r="D16" s="155"/>
-      <c r="E16" s="130"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="24" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="D17" s="155"/>
-      <c r="E17" s="130"/>
+      <c r="E17" s="116"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="112"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="122"/>
     </row>
     <row r="20" spans="3:5">
       <c r="D20" s="24" t="s">
@@ -11706,10 +11706,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L119"/>
+  <dimension ref="A2:L121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L113" sqref="L113"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12037,591 +12037,597 @@
       <c r="C69" s="24"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="B70" s="24" t="s">
-        <v>443</v>
-      </c>
+      <c r="C70" s="24"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="B71" s="24" t="s">
-        <v>439</v>
-      </c>
+      <c r="C71" s="24"/>
     </row>
     <row r="72" spans="1:12">
       <c r="B72" s="24" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="B73" s="24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="B74" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="B75" s="24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="B76" s="24" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="24" t="s">
+    <row r="78" spans="1:12">
+      <c r="A78" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="B76" s="34">
+      <c r="B78" s="34">
         <v>7</v>
       </c>
-      <c r="C76" s="160" t="s">
+      <c r="C78" s="160" t="s">
         <v>445</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D78" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="J76" s="24" t="s">
+      <c r="J78" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="L76" s="24" t="s">
+      <c r="L78" s="24" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="B77" s="34">
-        <v>6</v>
-      </c>
-      <c r="C77" s="161"/>
-      <c r="J77" s="24" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="B78" s="34">
-        <v>5</v>
-      </c>
-      <c r="C78" s="161"/>
     </row>
     <row r="79" spans="1:12">
       <c r="B79" s="34">
-        <v>4</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>446</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C79" s="161"/>
       <c r="J79" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="L79" s="24" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="B80" s="34">
-        <v>3</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>447</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C80" s="161"/>
     </row>
     <row r="81" spans="1:12">
       <c r="B81" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L81" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="B82" s="34">
-        <v>1</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="J82" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="L82" s="24" t="s">
-        <v>494</v>
+        <v>3</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="B83" s="34">
+        <v>2</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="L83" s="24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="B84" s="34">
+        <v>1</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="J84" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="L84" s="24" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="B85" s="34">
         <v>0</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C85" s="35" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
-      <c r="J84" s="24" t="s">
+    <row r="86" spans="1:12">
+      <c r="J86" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="L84" s="24" t="s">
+      <c r="L86" s="24" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="24" t="s">
+    <row r="87" spans="1:12">
+      <c r="A87" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="B85" s="34">
+      <c r="B87" s="34">
         <v>7</v>
       </c>
-      <c r="C85" s="158" t="s">
+      <c r="C87" s="158" t="s">
         <v>453</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E87" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="J85" s="24" t="s">
+      <c r="J87" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="L85" s="24" t="s">
+      <c r="L87" s="24" t="s">
         <v>504</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="B86" s="34">
-        <v>6</v>
-      </c>
-      <c r="C86" s="159"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="B87" s="34">
-        <v>5</v>
-      </c>
-      <c r="C87" s="159"/>
-      <c r="J87" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="L87" s="24" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="B88" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C88" s="159"/>
-      <c r="J88" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="L88" s="24" t="s">
-        <v>502</v>
-      </c>
     </row>
     <row r="89" spans="1:12">
       <c r="B89" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" s="159"/>
+      <c r="J89" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="L89" s="24" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="90" spans="1:12">
       <c r="B90" s="34">
-        <v>2</v>
-      </c>
-      <c r="C90" s="158" t="s">
-        <v>452</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C90" s="159"/>
       <c r="J90" s="24" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="L90" s="24" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="B91" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" s="159"/>
-      <c r="J91" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="L91" s="24" t="s">
-        <v>505</v>
-      </c>
     </row>
     <row r="92" spans="1:12">
       <c r="B92" s="34">
+        <v>2</v>
+      </c>
+      <c r="C92" s="158" t="s">
+        <v>452</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="L92" s="24" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="B93" s="34">
+        <v>1</v>
+      </c>
+      <c r="C93" s="159"/>
+      <c r="J93" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="L93" s="24" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="B94" s="34">
         <v>0</v>
       </c>
-      <c r="C92" s="159"/>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="J93" s="24" t="s">
+      <c r="C94" s="159"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="J95" s="24" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="24" t="s">
+    <row r="96" spans="1:12">
+      <c r="A96" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B94" s="34">
+      <c r="B96" s="34">
         <v>7</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C96" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="F94" s="24" t="s">
+      <c r="F96" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="G94" s="34">
+      <c r="G96" s="34">
         <v>7</v>
       </c>
-      <c r="H94" s="158" t="s">
+      <c r="H96" s="158" t="s">
         <v>468</v>
       </c>
-      <c r="J94" s="24" t="s">
+      <c r="J96" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="L94" s="24" t="s">
+      <c r="L96" s="24" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="24" t="s">
+    <row r="97" spans="1:12">
+      <c r="A97" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B95" s="34">
+      <c r="B97" s="34">
         <v>6</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C97" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="F95" s="24" t="s">
+      <c r="F97" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="G95" s="34">
+      <c r="G97" s="34">
         <v>6</v>
-      </c>
-      <c r="H95" s="159"/>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="B96" s="34">
-        <v>5</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="G96" s="34">
-        <v>5</v>
-      </c>
-      <c r="H96" s="159"/>
-      <c r="J96" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="L96" s="24" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="B97" s="34">
-        <v>4</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="G97" s="34">
-        <v>4</v>
       </c>
       <c r="H97" s="159"/>
     </row>
     <row r="98" spans="1:12">
       <c r="B98" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G98" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H98" s="159"/>
       <c r="J98" s="24" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="L98" s="24" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="B99" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G99" s="34">
-        <v>2</v>
-      </c>
-      <c r="H99" s="156" t="s">
-        <v>469</v>
-      </c>
-      <c r="J99" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="L99" s="24" t="s">
-        <v>512</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H99" s="159"/>
     </row>
     <row r="100" spans="1:12">
       <c r="B100" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G100" s="34">
-        <v>1</v>
-      </c>
-      <c r="H100" s="157"/>
+        <v>3</v>
+      </c>
+      <c r="H100" s="159"/>
       <c r="J100" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L100" s="24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="B101" s="34">
+        <v>2</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="G101" s="34">
+        <v>2</v>
+      </c>
+      <c r="H101" s="156" t="s">
+        <v>469</v>
+      </c>
+      <c r="J101" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="L101" s="24" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="B102" s="34">
+        <v>1</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="G102" s="34">
+        <v>1</v>
+      </c>
+      <c r="H102" s="157"/>
+      <c r="J102" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="L102" s="24" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="B103" s="34">
         <v>0</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C103" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="G101" s="34">
+      <c r="G103" s="34">
         <v>0</v>
       </c>
-      <c r="H101" s="157"/>
-    </row>
-    <row r="103" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A103" s="24" t="s">
+      <c r="H103" s="157"/>
+    </row>
+    <row r="105" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A105" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="B103" s="34">
+      <c r="B105" s="34">
         <v>7</v>
       </c>
-      <c r="C103" s="156" t="s">
+      <c r="C105" s="156" t="s">
         <v>530</v>
       </c>
-      <c r="F103" s="24" t="s">
+      <c r="F105" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="G103" s="34">
+      <c r="G105" s="34">
         <v>7</v>
       </c>
-      <c r="H103" s="24" t="s">
+      <c r="H105" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="J103" s="24" t="s">
+      <c r="J105" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="L103" s="24" t="s">
+      <c r="L105" s="24" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="24" t="s">
+    <row r="106" spans="1:12">
+      <c r="A106" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="B104" s="34">
+      <c r="B106" s="34">
         <v>6</v>
       </c>
-      <c r="C104" s="156"/>
-      <c r="F104" s="24" t="s">
+      <c r="C106" s="156"/>
+      <c r="F106" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="G104" s="34">
+      <c r="G106" s="34">
         <v>6</v>
       </c>
-      <c r="H104" s="24" t="s">
+      <c r="H106" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="J104" s="24" t="s">
+      <c r="J106" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="L104" s="24" t="s">
+      <c r="L106" s="24" t="s">
         <v>517</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="B105" s="34">
-        <v>5</v>
-      </c>
-      <c r="C105" s="156"/>
-      <c r="F105" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="G105" s="34">
-        <v>5</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="B106" s="34">
-        <v>4</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="G106" s="34">
-        <v>4</v>
-      </c>
-      <c r="H106" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="J106" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="B107" s="34">
-        <v>3</v>
-      </c>
-      <c r="C107" s="158" t="s">
-        <v>473</v>
+        <v>5</v>
+      </c>
+      <c r="C107" s="156"/>
+      <c r="F107" s="24" t="s">
+        <v>519</v>
       </c>
       <c r="G107" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="B108" s="34">
-        <v>2</v>
-      </c>
-      <c r="C108" s="158"/>
+        <v>4</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>472</v>
+      </c>
       <c r="G108" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H108" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
+      </c>
+      <c r="J108" s="24" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="B109" s="34">
-        <v>1</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>474</v>
+        <v>3</v>
+      </c>
+      <c r="C109" s="158" t="s">
+        <v>473</v>
       </c>
       <c r="G109" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="B110" s="34">
+        <v>2</v>
+      </c>
+      <c r="C110" s="158"/>
+      <c r="G110" s="34">
+        <v>2</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="B111" s="34">
+        <v>1</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="G111" s="34">
+        <v>1</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="B112" s="34">
         <v>0</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C112" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="G110" s="34">
+      <c r="G112" s="34">
         <v>0</v>
       </c>
-      <c r="H110" s="24" t="s">
+      <c r="H112" s="24" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
-      <c r="F112" s="24" t="s">
+    <row r="114" spans="6:9">
+      <c r="F114" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="G112" s="34">
+      <c r="G114" s="34">
         <v>7</v>
       </c>
-      <c r="H112" s="24" t="s">
+      <c r="H114" s="24" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="113" spans="6:9">
-      <c r="F113" s="24" t="s">
+    <row r="115" spans="6:9">
+      <c r="F115" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="G113" s="34">
+      <c r="G115" s="34">
         <v>6</v>
       </c>
-      <c r="H113" s="35" t="s">
+      <c r="H115" s="35" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="114" spans="6:9">
-      <c r="F114" s="24"/>
-      <c r="G114" s="34">
+    <row r="116" spans="6:9">
+      <c r="F116" s="24"/>
+      <c r="G116" s="34">
         <v>5</v>
       </c>
-      <c r="H114" s="35" t="s">
+      <c r="H116" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="I114" s="24" t="s">
+      <c r="I116" s="24" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="115" spans="6:9">
-      <c r="G115" s="34">
-        <v>4</v>
-      </c>
-      <c r="H115" s="25" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="116" spans="6:9">
-      <c r="G116" s="34">
-        <v>3</v>
-      </c>
-      <c r="H116" s="25" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="117" spans="6:9">
       <c r="G117" s="34">
-        <v>2</v>
-      </c>
-      <c r="H117" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="I117" s="24" t="s">
-        <v>528</v>
+        <v>4</v>
+      </c>
+      <c r="H117" s="25" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="118" spans="6:9">
       <c r="G118" s="34">
-        <v>1</v>
-      </c>
-      <c r="H118" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="I118" s="24" t="s">
-        <v>529</v>
+        <v>3</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="119" spans="6:9">
       <c r="G119" s="34">
+        <v>2</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="I119" s="24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="120" spans="6:9">
+      <c r="G120" s="34">
+        <v>1</v>
+      </c>
+      <c r="H120" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="I120" s="24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="121" spans="6:9">
+      <c r="G121" s="34">
         <v>0</v>
       </c>
-      <c r="H119" s="24" t="s">
+      <c r="H121" s="24" t="s">
         <v>526</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="H99:H101"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="H96:H100"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C87:C91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
